--- a/тесткейсы_КСР1.xlsx
+++ b/тесткейсы_КСР1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annam\Desktop\git\testing-term2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miatselskaya_H\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1096974C-0BD4-483D-A4EF-B643EC473BB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="8835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="2" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="190">
   <si>
     <t>V1.0</t>
   </si>
@@ -552,18 +551,6 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>Длина 1</t>
-  </si>
-  <si>
-    <t>Длина 9</t>
-  </si>
-  <si>
-    <t>Длина от 1 до 9</t>
-  </si>
-  <si>
-    <t>Отображение цифр</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Перейти на форму "Список задач"
 2. Посмотреть на строку в колонке "Название проекта" в которой присутвует латиница
  </t>
@@ -585,33 +572,10 @@
 2. Посмотреть на строку в колонке "Название проекта" в которой присутвует специальные символы</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Перейти на форму "Список задач"
-2. Посмотреть на строку в колонке "Работа" с длиной 1
- </t>
-  </si>
-  <si>
-    <t>1. Перейти на форму "Список задач"
-2. Посмотреть на строку в колонке "Работа" с длиной от 1 до 9</t>
-  </si>
-  <si>
-    <t>1. Перейти на форму "Список задач"
-2. Посмотреть на строку в колонке "Работа" с длиной 9</t>
-  </si>
-  <si>
-    <t>1. Перейти на форму "Список задач"
-2. Посмотреть на строку в колонке "Работа" в которой присутвует цифра</t>
-  </si>
-  <si>
-    <t>Issue 163</t>
-  </si>
-  <si>
     <t>Issue 164</t>
   </si>
   <si>
     <t>Отображение колонки "Дата начала"</t>
-  </si>
-  <si>
-    <t>Отображение колонки "Работа"</t>
   </si>
   <si>
     <t>1.7</t>
@@ -705,9 +669,6 @@
 2. Нажать на кнопку Сохранения задачи</t>
   </si>
   <si>
-    <t>1.10</t>
-  </si>
-  <si>
     <t>Отображение колонки "Исполнитель"</t>
   </si>
   <si>
@@ -733,7 +694,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -1066,7 +1027,7 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1154,6 +1115,33 @@
     <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1177,15 +1165,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1193,9 +1172,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1205,48 +1199,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Гиперссылка" xfId="3" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
-    <cellStyle name="Стиль 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Стиль 1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1295,9 +1253,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1335,7 +1293,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1370,23 +1328,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1422,26 +1363,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1614,84 +1538,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-    </row>
-    <row r="4" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+    </row>
+    <row r="4" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
+    </row>
+    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>119</v>
       </c>
@@ -1699,57 +1623,57 @@
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-    </row>
-    <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+    </row>
+    <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>129</v>
       </c>
@@ -1757,7 +1681,7 @@
       <c r="C14" s="40"/>
       <c r="D14" s="41"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>130</v>
       </c>
@@ -1771,7 +1695,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>134</v>
       </c>
@@ -1787,12 +1711,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="A3:D3"/>
@@ -1800,81 +1718,87 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P70"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="45.21875" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99.88671875" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="92.88671875" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="92.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="5.44140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="28"/>
+    <col min="7" max="15" width="5.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="62" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:16" s="33" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-    </row>
-    <row r="2" spans="1:16" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+    </row>
+    <row r="2" spans="1:16" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="63" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-    </row>
-    <row r="3" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+    </row>
+    <row r="3" spans="1:16" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1924,7 +1848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1946,7 +1870,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" s="6" customFormat="1" ht="187.2" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="6" customFormat="1" ht="189" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1960,11 +1884,11 @@
       <c r="E5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="6" customFormat="1" ht="46.8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="6" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
@@ -1982,7 +1906,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="6" customFormat="1" ht="31.2" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
@@ -2000,7 +1924,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="6" customFormat="1" ht="46.8" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="6" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -2018,58 +1942,58 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58" t="s">
+    <row r="9" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="58" t="s">
         <v>140</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="58" t="s">
+      <c r="D9" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="56" t="s">
         <v>143</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="57"/>
+    <row r="10" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
-      <c r="B11" s="57"/>
+    <row r="11" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="56"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
-      <c r="B12" s="57"/>
+    <row r="12" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="7" t="s">
         <v>144</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>146</v>
@@ -2078,14 +2002,14 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
-      <c r="B13" s="57"/>
+    <row r="13" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="7" t="s">
         <v>145</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>146</v>
@@ -2094,14 +2018,14 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="57"/>
+    <row r="14" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="7" t="s">
         <v>147</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>146</v>
@@ -2110,14 +2034,14 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="57"/>
+    <row r="15" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="7" t="s">
         <v>148</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>146</v>
@@ -2126,244 +2050,246 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F17" s="59"/>
-    </row>
-    <row r="18" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F18" s="59"/>
-    </row>
-    <row r="19" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="57"/>
+        <v>173</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>183</v>
+      </c>
       <c r="C19" s="7" t="s">
-        <v>154</v>
+        <v>184</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="59"/>
-    </row>
-    <row r="20" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="61"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="D20" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="6" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="7" customFormat="1" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:16" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="7" customFormat="1" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:16" s="6" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-    </row>
-    <row r="27" spans="1:16" s="6" customFormat="1" ht="296.39999999999998" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+    </row>
+    <row r="23" spans="1:16" s="6" customFormat="1" ht="299.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="6" customFormat="1" ht="18" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="F23" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="6" customFormat="1" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>138</v>
       </c>
+      <c r="F24" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="6" customFormat="1" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="6" customFormat="1" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="6" customFormat="1" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="F28" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="6" customFormat="1" ht="31.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="7"/>
+    <row r="29" spans="1:16" s="6" customFormat="1" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="D29" s="7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="F29" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="6" customFormat="1" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>58</v>
-      </c>
+    <row r="30" spans="1:16" s="6" customFormat="1" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="7" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>73</v>
@@ -2375,11 +2301,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="6" customFormat="1" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="57"/>
+    <row r="31" spans="1:16" s="6" customFormat="1" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>73</v>
@@ -2391,285 +2317,289 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="6" customFormat="1" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="57"/>
+    <row r="32" spans="1:16" s="6" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="6" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="6" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="6" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="6" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="6" customFormat="1" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="6" customFormat="1" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="56"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="6" customFormat="1" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="58"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="6" customFormat="1" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="58"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="6" customFormat="1" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="6" customFormat="1" ht="46.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="6" customFormat="1" ht="46.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="6" customFormat="1" ht="46.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="6" customFormat="1" ht="46.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="6" customFormat="1" ht="46.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="6" customFormat="1" ht="31.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="6" customFormat="1" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="6" customFormat="1" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="D43" s="7" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="F43" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="6" customFormat="1" ht="62.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
-      <c r="B44" s="57"/>
+    <row r="44" spans="1:6" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>47</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="F44" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="6" customFormat="1" ht="62.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
-      <c r="B45" s="57"/>
+    <row r="45" spans="1:6" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="56"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="7" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="F45" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="6" customFormat="1" ht="62.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
-      <c r="B46" s="57"/>
+    <row r="46" spans="1:6" s="6" customFormat="1" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" s="58" t="s">
+        <v>60</v>
+      </c>
       <c r="C46" s="7" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
       <c r="F46" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="6" customFormat="1" ht="62.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="58"/>
-      <c r="B47" s="57"/>
+    <row r="47" spans="1:6" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="F47" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="6" customFormat="1" ht="62.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
-      <c r="B48" s="57"/>
+    <row r="48" spans="1:6" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="F48" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="6" customFormat="1" ht="31.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="58"/>
-      <c r="B49" s="57"/>
+    <row r="49" spans="1:16" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="7" t="s">
         <v>68</v>
       </c>
@@ -2677,18 +2607,18 @@
         <v>69</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F49" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="6" customFormat="1" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="57" t="s">
-        <v>60</v>
+    <row r="50" spans="1:16" s="6" customFormat="1" ht="78.75" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="58" t="s">
+        <v>61</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>79</v>
@@ -2697,15 +2627,15 @@
         <v>80</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F50" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="6" customFormat="1" ht="62.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
-      <c r="B51" s="57"/>
+    <row r="51" spans="1:16" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="56"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="7" t="s">
         <v>74</v>
       </c>
@@ -2713,15 +2643,15 @@
         <v>49</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F51" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="6" customFormat="1" ht="62.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="58"/>
-      <c r="B52" s="57"/>
+    <row r="52" spans="1:16" s="6" customFormat="1" ht="63" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="56"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="7" t="s">
         <v>77</v>
       </c>
@@ -2729,15 +2659,15 @@
         <v>49</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F52" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="6" customFormat="1" ht="31.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="58"/>
-      <c r="B53" s="57"/>
+    <row r="53" spans="1:16" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="7" t="s">
         <v>68</v>
       </c>
@@ -2745,56 +2675,54 @@
         <v>69</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="F53" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="6" customFormat="1" ht="78" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>79</v>
-      </c>
+    <row r="54" spans="1:16" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="7"/>
       <c r="D54" s="7" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="6" customFormat="1" ht="62.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="58"/>
-      <c r="B55" s="57"/>
+    <row r="55" spans="1:16" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="60"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="61"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="6" customFormat="1" ht="62.4" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="58"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>170</v>
@@ -2803,287 +2731,216 @@
         <v>137</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="6" customFormat="1" ht="31.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="58"/>
-      <c r="B57" s="57"/>
+    <row r="57" spans="1:16" s="6" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="58" t="s">
+        <v>63</v>
+      </c>
       <c r="C57" s="7" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>81</v>
+        <v>181</v>
       </c>
       <c r="F57" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="6" customFormat="1" ht="31.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="7"/>
+    <row r="58" spans="1:16" s="6" customFormat="1" ht="47.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="56"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="7" t="s">
+        <v>175</v>
+      </c>
       <c r="D58" s="7" t="s">
-        <v>50</v>
+        <v>177</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="F58" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="6" customFormat="1" ht="31.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="55"/>
-      <c r="B59" s="52"/>
+    <row r="59" spans="1:16" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="56"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="7" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="D59" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
       <c r="F59" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="6" customFormat="1" ht="31.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="56"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="7" t="s">
-        <v>178</v>
-      </c>
+    <row r="60" spans="1:16" s="6" customFormat="1" ht="31.5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="7"/>
       <c r="D60" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="F60" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="6" customFormat="1" ht="46.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" s="57" t="s">
-        <v>63</v>
+    <row r="61" spans="1:16" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="58" t="s">
+        <v>53</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>191</v>
+        <v>105</v>
+      </c>
+      <c r="D61" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="56" t="s">
+        <v>55</v>
       </c>
       <c r="F61" s="27" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" s="6" customFormat="1" ht="46.8" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="58"/>
-      <c r="B62" s="57"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+    </row>
+    <row r="62" spans="1:16" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="56"/>
+      <c r="B62" s="58"/>
       <c r="C62" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>189</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
       <c r="F62" s="27" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" s="6" customFormat="1" ht="31.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="58"/>
-      <c r="B63" s="57"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+    </row>
+    <row r="63" spans="1:16" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="56"/>
+      <c r="B63" s="58"/>
       <c r="C63" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>190</v>
+        <v>107</v>
+      </c>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56" t="s">
+        <v>109</v>
       </c>
       <c r="F63" s="27" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" s="6" customFormat="1" ht="31.2" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>56</v>
-      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+    </row>
+    <row r="64" spans="1:16" s="34" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="56"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
       <c r="F64" s="27" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" s="64" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A65" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D65" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="E65" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-    </row>
-    <row r="66" spans="1:16" s="64" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="58"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-    </row>
-    <row r="67" spans="1:16" s="64" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="58"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-    </row>
-    <row r="68" spans="1:16" s="64" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="58"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-    </row>
-    <row r="70" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C70" s="7"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+    </row>
+    <row r="66" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C66" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F2:P2"/>
-    <mergeCell ref="B30:B41"/>
-    <mergeCell ref="A30:A41"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="A42:A49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="D65:D68"/>
+  <mergeCells count="24">
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="D61:D64"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="E9:E11"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F2:P2"/>
+    <mergeCell ref="B26:B37"/>
+    <mergeCell ref="A26:A37"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="A38:A45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B61:B64"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65558:F65565 F131094:F131101 F196630:F196637 F262166:F262173 F327702:F327709 F393238:F393245 F458774:F458781 F524310:F524317 F589846:F589853 F655382:F655389 F720918:F720925 F786454:F786461 F851990:F851997 F917526:F917533 F983062:F983069 F65550 F131086 F196622 F262158 F327694 F393230 F458766 F524302 F589838 F655374 F720910 F786446 F851982 F917518 F983054 F65552:F65556 F131088:F131092 F196624:F196628 F262160:F262164 F327696:F327700 F393232:F393236 F458768:F458772 F524304:F524308 F589840:F589844 F655376:F655380 F720912:F720916 F786448:F786452 F851984:F851988 F917520:F917524 F983056:F983060 F65567:F65571 F131103:F131107 F196639:F196643 F262175:F262179 F327711:F327715 F393247:F393251 F458783:F458787 F524319:F524323 F589855:F589859 F655391:F655395 F720927:F720931 F786463:F786467 F851999:F852003 F917535:F917539 F983071:F983075 F65573:F65575 F131109:F131111 F196645:F196647 F262181:F262183 F327717:F327719 F393253:F393255 F458789:F458791 F524325:F524327 F589861:F589863 F655397:F655399 F720933:F720935 F786469:F786471 F852005:F852007 F917541:F917543 F983077:F983079 F65577:F65580 F131113:F131116 F196649:F196652 F262185:F262188 F327721:F327724 F393257:F393260 F458793:F458796 F524329:F524332 F589865:F589868 F655401:F655404 F720937:F720940 F786473:F786476 F852009:F852012 F917545:F917548 F983081:F983084" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65554:F65561 F131090:F131097 F196626:F196633 F262162:F262169 F327698:F327705 F393234:F393241 F458770:F458777 F524306:F524313 F589842:F589849 F655378:F655385 F720914:F720921 F786450:F786457 F851986:F851993 F917522:F917529 F983058:F983065 F65546 F131082 F196618 F262154 F327690 F393226 F458762 F524298 F589834 F655370 F720906 F786442 F851978 F917514 F983050 F65548:F65552 F131084:F131088 F196620:F196624 F262156:F262160 F327692:F327696 F393228:F393232 F458764:F458768 F524300:F524304 F589836:F589840 F655372:F655376 F720908:F720912 F786444:F786448 F851980:F851984 F917516:F917520 F983052:F983056 F65563:F65567 F131099:F131103 F196635:F196639 F262171:F262175 F327707:F327711 F393243:F393247 F458779:F458783 F524315:F524319 F589851:F589855 F655387:F655391 F720923:F720927 F786459:F786463 F851995:F851999 F917531:F917535 F983067:F983071 F65569:F65571 F131105:F131107 F196641:F196643 F262177:F262179 F327713:F327715 F393249:F393251 F458785:F458787 F524321:F524323 F589857:F589859 F655393:F655395 F720929:F720931 F786465:F786467 F852001:F852003 F917537:F917539 F983073:F983075 F65573:F65576 F131109:F131112 F196645:F196648 F262181:F262184 F327717:F327720 F393253:F393256 F458789:F458792 F524325:F524328 F589861:F589864 F655397:F655400 F720933:F720936 F786469:F786472 F852005:F852008 F917541:F917544 F983077:F983080">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F11" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F16" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="F27" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="F24" r:id="rId6" xr:uid="{8A6C0B7F-D677-4AA4-B6BA-C92D9F0D387A}"/>
+    <hyperlink ref="F9" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId2"/>
+    <hyperlink ref="F23" r:id="rId3"/>
+    <hyperlink ref="F20" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>